--- a/biology/Botanique/Stackhousiaceae/Stackhousiaceae.xlsx
+++ b/biology/Botanique/Stackhousiaceae/Stackhousiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Stackhousiacées est une famille de plantes dicotylédones. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Stackhousia, donné en l'honneur de D.J. Stackhouse, naturaliste anglais qui a travaillé sur les plantes marines de Grande Bretagne[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Stackhousia, donné en l'honneur de D.J. Stackhouse, naturaliste anglais qui a travaillé sur les plantes marines de Grande Bretagne. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] accepte cette famille.
-En classification phylogénétique APG II (2003)[3] et classification phylogénétique APG III (2009)[4] cette famille n'existe pas: ces plantes sont incluses dans les Célastracées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) accepte cette famille.
+En classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) cette famille n'existe pas: ces plantes sont incluses dans les Célastracées.
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon Watson &amp; Dallwitz : 
 Macgregoria, . von Mueller, 1874
 Stackhousia Sm., 1798
 Tripterococcus Endlicher, in Endlicher et al., 1837
-Selon Tropicos                                           (21 novembre 2022)[5]
+Selon Tropicos                                           (21 novembre 2022)
 Stackhousia Sm., 1798</t>
         </is>
       </c>
